--- a/shifts.xlsx
+++ b/shifts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuveprotech-my.sharepoint.com/personal/rudragouda_nuvepro_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B2EF49-4DB7-4D6F-B7D5-7F8B4C7ACBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B2B2EF49-4DB7-4D6F-B7D5-7F8B4C7ACBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70AB31C2-3ABD-44BD-8BEF-C64E6E359186}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{11C92E73-7D74-4003-BEF9-7CB2010DFD1F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -44,28 +44,22 @@
     <t>Shift Time</t>
   </si>
   <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Ravi Kumar</t>
-  </si>
-  <si>
-    <t>9 AM - 6 PM</t>
-  </si>
-  <si>
-    <t>Priya Sharma</t>
-  </si>
-  <si>
-    <t>6 PM - 3 AM</t>
-  </si>
-  <si>
-    <t>Suresh Patil</t>
-  </si>
-  <si>
-    <t>3 AM - 9 AM</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>09:00–17:00</t>
+  </si>
+  <si>
+    <t>Aira</t>
+  </si>
+  <si>
+    <t>17:00–01:00</t>
+  </si>
+  <si>
+    <t>Kiran</t>
   </si>
 </sst>
 </file>
@@ -109,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -118,6 +112,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -457,70 +454,64 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>45957</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>45957</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>45958</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45957.375</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45957.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45957.75</v>
-      </c>
-      <c r="D3" s="3">
-        <v>45958.125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45958.125</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45958.375</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
